--- a/vizualisation/values.xlsx
+++ b/vizualisation/values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ewen\Ecole ENAC\Delft\q2\OO Project\vizualisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\GitHub\Optim-Project\vizualisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F267FA9-776B-4EDE-9143-6F11F7F1C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC05C98-17AA-4158-984A-FD2C37CB5250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>flight</t>
   </si>
@@ -60,13 +60,43 @@
   </si>
   <si>
     <t>tot_pb_size</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>var_size</t>
+  </si>
+  <si>
+    <t>con_size</t>
+  </si>
+  <si>
+    <t>pb-size/time</t>
+  </si>
+  <si>
+    <t>pb_size</t>
+  </si>
+  <si>
+    <t>av_gate_occ/time</t>
+  </si>
+  <si>
+    <t>Intel(R) Atom(TM) x5-Z8550  CPU @ 1.44GHz, instruction set [SSE2]</t>
+  </si>
+  <si>
+    <t>4 physical cores, 4 logical processors, using up to 4 threads</t>
+  </si>
+  <si>
+    <t>av_gate_occ</t>
+  </si>
+  <si>
+    <t>7hr open gate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +104,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,14 +134,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,23 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.6328125" customWidth="1"/>
+    <col min="4" max="8" width="10.6328125" customWidth="1"/>
+    <col min="9" max="11" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,20 +451,21 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -432,24 +478,28 @@
       <c r="E2">
         <v>0.66415834426879805</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <f>A2*B2*B2</f>
         <v>324</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <f>B2+A2+A2+B2*A2</f>
         <v>53</v>
       </c>
+      <c r="H2">
+        <f>F2+G2</f>
+        <v>377</v>
+      </c>
       <c r="I2">
-        <f>G2+H2</f>
-        <v>377</v>
+        <f>D2/H2</f>
+        <v>218.63395225464191</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J7" si="0">D2/I2</f>
-        <v>218.63395225464191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(B2/A2)/E2</f>
+        <v>3.3877463400345089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -462,24 +512,28 @@
       <c r="E3">
         <v>15.397390127182</v>
       </c>
+      <c r="F3">
+        <f>A3*B3*B3</f>
+        <v>25000</v>
+      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="1">A3*B3*B3</f>
-        <v>25000</v>
+        <f>B3+A3+A3+B3*A3</f>
+        <v>570</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="2">B3+A3+A3+B3*A3</f>
-        <v>570</v>
+        <f t="shared" ref="H3:H7" si="0">F3+G3</f>
+        <v>25570</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="3">G3+H3</f>
-        <v>25570</v>
+        <f>D3/H3</f>
+        <v>6.7051231912397338</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>6.7051231912397338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J3:J8" si="1">(B3/A3)/E3</f>
+        <v>0.32473035746318979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>18</v>
       </c>
@@ -492,24 +546,28 @@
       <c r="E4">
         <v>316.84671211242602</v>
       </c>
+      <c r="F4">
+        <f>A4*B4*B4</f>
+        <v>115200</v>
+      </c>
       <c r="G4">
+        <f>B4+A4+A4+B4*A4</f>
+        <v>1556</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>116756</v>
+      </c>
+      <c r="I4">
+        <f>D4/H4</f>
+        <v>306.64613381753401</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>115200</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>1556</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>116756</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>306.64613381753401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.4027112400230406E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>23</v>
       </c>
@@ -522,24 +580,28 @@
       <c r="E5">
         <v>1031.0852036476099</v>
       </c>
+      <c r="F5">
+        <f>A5*B5*B5</f>
+        <v>278300</v>
+      </c>
       <c r="G5">
+        <f>B5+A5+A5+B5*A5</f>
+        <v>2686</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>280986</v>
+      </c>
+      <c r="I5">
+        <f>D5/H5</f>
+        <v>31.920622379762694</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>278300</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>2686</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>280986</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>31.920622379762694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.6384223910235726E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>27</v>
       </c>
@@ -552,24 +614,28 @@
       <c r="E6">
         <v>4728.4939258098602</v>
       </c>
+      <c r="F6">
+        <f>A6*B6*B6</f>
+        <v>914112</v>
+      </c>
       <c r="G6">
+        <f>B6+A6+A6+B6*A6</f>
+        <v>5206</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>919318</v>
+      </c>
+      <c r="I6">
+        <f>D6/H6</f>
+        <v>8.5814331928668857</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>914112</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>5206</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>919318</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>8.5814331928668857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.4412231297616874E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>27</v>
       </c>
@@ -582,32 +648,263 @@
       <c r="E7">
         <v>16124.625682592299</v>
       </c>
+      <c r="F7">
+        <f>A7*B7*B7</f>
+        <v>924075</v>
+      </c>
       <c r="G7">
+        <f>B7+A7+A7+B7*A7</f>
+        <v>5234</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>929309</v>
+      </c>
+      <c r="I7">
+        <f>D7/H7</f>
+        <v>8.9746424493898154</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>924075</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>5234</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>929309</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>8.9746424493898154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.2493090920237128E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50</v>
       </c>
       <c r="B8">
         <v>299</v>
       </c>
+      <c r="F8">
+        <f>A8*B8*B8</f>
+        <v>4470050</v>
+      </c>
+      <c r="G8">
+        <f>B8+A8+A8+B8*A8</f>
+        <v>15349</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H15" si="2">F8+G8</f>
+        <v>4485399</v>
+      </c>
+      <c r="I8">
+        <f>D8/H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>82425</v>
+      </c>
+      <c r="E12">
+        <v>0.21</v>
+      </c>
+      <c r="F12">
+        <f>A12*B12*B12</f>
+        <v>324</v>
+      </c>
+      <c r="G12">
+        <f>B12+A12+A12+B12*A12</f>
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>377</v>
+      </c>
+      <c r="I12">
+        <f>D12/H12</f>
+        <v>218.63395225464191</v>
+      </c>
+      <c r="J12">
+        <f>H12/E12</f>
+        <v>1795.2380952380954</v>
+      </c>
+      <c r="K12">
+        <f>B12/A12</f>
+        <v>2.25</v>
+      </c>
+      <c r="L12">
+        <f>(B12/A12)/E12</f>
+        <v>10.714285714285715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>44500</v>
+      </c>
+      <c r="E13">
+        <v>0.15</v>
+      </c>
+      <c r="F13">
+        <f>A13*B13*B13</f>
+        <v>576</v>
+      </c>
+      <c r="G13">
+        <f>B13+A13+A13+B13*A13</f>
+        <v>68</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>644</v>
+      </c>
+      <c r="I13">
+        <f>D13/H13</f>
+        <v>69.099378881987576</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K15" si="3">B13/A13</f>
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <f>(B13/A13)/E13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>22186</v>
+      </c>
+      <c r="F14">
+        <f>A14*B14*B14</f>
+        <v>900</v>
+      </c>
+      <c r="G14">
+        <f>B14+A14+A14+B14*A14</f>
+        <v>83</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>983</v>
+      </c>
+      <c r="I14">
+        <f>D14/H14</f>
+        <v>22.569684638860632</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="L14" t="e">
+        <f>(B14/A14)/E14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <f>A15*B15*B15</f>
+        <v>1936</v>
+      </c>
+      <c r="G15">
+        <f>B15+A15+A15+B15*A15</f>
+        <v>118</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>2054</v>
+      </c>
+      <c r="I15">
+        <f>D15/H15</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:N10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vizualisation/values.xlsx
+++ b/vizualisation/values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Documents\GitHub\Optim-Project\vizualisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC05C98-17AA-4158-984A-FD2C37CB5250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D0838D-8B21-478A-9214-5B985A7EEA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>flight</t>
   </si>
@@ -60,36 +60,6 @@
   </si>
   <si>
     <t>tot_pb_size</t>
-  </si>
-  <si>
-    <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>var_size</t>
-  </si>
-  <si>
-    <t>con_size</t>
-  </si>
-  <si>
-    <t>pb-size/time</t>
-  </si>
-  <si>
-    <t>pb_size</t>
-  </si>
-  <si>
-    <t>av_gate_occ/time</t>
-  </si>
-  <si>
-    <t>Intel(R) Atom(TM) x5-Z8550  CPU @ 1.44GHz, instruction set [SSE2]</t>
-  </si>
-  <si>
-    <t>4 physical cores, 4 logical processors, using up to 4 threads</t>
-  </si>
-  <si>
-    <t>av_gate_occ</t>
-  </si>
-  <si>
-    <t>7hr open gate</t>
   </si>
 </sst>
 </file>
@@ -138,12 +108,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -425,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,10 +431,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -479,11 +450,11 @@
         <v>0.66415834426879805</v>
       </c>
       <c r="F2">
-        <f>A2*B2*B2</f>
+        <f t="shared" ref="F2:F8" si="0">A2*B2*B2</f>
         <v>324</v>
       </c>
       <c r="G2">
-        <f>B2+A2+A2+B2*A2</f>
+        <f t="shared" ref="G2:G8" si="1">B2+A2+A2+B2*A2</f>
         <v>53</v>
       </c>
       <c r="H2">
@@ -491,7 +462,7 @@
         <v>377</v>
       </c>
       <c r="I2">
-        <f>D2/H2</f>
+        <f t="shared" ref="I2:I8" si="2">D2/H2</f>
         <v>218.63395225464191</v>
       </c>
       <c r="J2">
@@ -513,23 +484,23 @@
         <v>15.397390127182</v>
       </c>
       <c r="F3">
-        <f>A3*B3*B3</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="G3">
-        <f>B3+A3+A3+B3*A3</f>
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">F3+G3</f>
+        <f t="shared" ref="H3:H7" si="3">F3+G3</f>
         <v>25570</v>
       </c>
       <c r="I3">
-        <f>D3/H3</f>
+        <f t="shared" si="2"/>
         <v>6.7051231912397338</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="1">(B3/A3)/E3</f>
+        <f t="shared" ref="J3:J8" si="4">(B3/A3)/E3</f>
         <v>0.32473035746318979</v>
       </c>
     </row>
@@ -547,23 +518,23 @@
         <v>316.84671211242602</v>
       </c>
       <c r="F4">
-        <f>A4*B4*B4</f>
+        <f t="shared" si="0"/>
         <v>115200</v>
       </c>
       <c r="G4">
-        <f>B4+A4+A4+B4*A4</f>
+        <f t="shared" si="1"/>
         <v>1556</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>116756</v>
       </c>
       <c r="I4">
-        <f>D4/H4</f>
+        <f t="shared" si="2"/>
         <v>306.64613381753401</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4027112400230406E-2</v>
       </c>
     </row>
@@ -581,23 +552,23 @@
         <v>1031.0852036476099</v>
       </c>
       <c r="F5">
-        <f>A5*B5*B5</f>
+        <f t="shared" si="0"/>
         <v>278300</v>
       </c>
       <c r="G5">
-        <f>B5+A5+A5+B5*A5</f>
+        <f t="shared" si="1"/>
         <v>2686</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>280986</v>
       </c>
       <c r="I5">
-        <f>D5/H5</f>
+        <f t="shared" si="2"/>
         <v>31.920622379762694</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.6384223910235726E-3</v>
       </c>
     </row>
@@ -615,23 +586,23 @@
         <v>4728.4939258098602</v>
       </c>
       <c r="F6">
-        <f>A6*B6*B6</f>
+        <f t="shared" si="0"/>
         <v>914112</v>
       </c>
       <c r="G6">
-        <f>B6+A6+A6+B6*A6</f>
+        <f t="shared" si="1"/>
         <v>5206</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>919318</v>
       </c>
       <c r="I6">
-        <f>D6/H6</f>
+        <f t="shared" si="2"/>
         <v>8.5814331928668857</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4412231297616874E-3</v>
       </c>
     </row>
@@ -649,23 +620,23 @@
         <v>16124.625682592299</v>
       </c>
       <c r="F7">
-        <f>A7*B7*B7</f>
+        <f t="shared" si="0"/>
         <v>924075</v>
       </c>
       <c r="G7">
-        <f>B7+A7+A7+B7*A7</f>
+        <f t="shared" si="1"/>
         <v>5234</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>929309</v>
       </c>
       <c r="I7">
-        <f>D7/H7</f>
+        <f t="shared" si="2"/>
         <v>8.9746424493898154</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.2493090920237128E-4</v>
       </c>
     </row>
@@ -677,233 +648,44 @@
         <v>299</v>
       </c>
       <c r="F8">
-        <f>A8*B8*B8</f>
+        <f t="shared" si="0"/>
         <v>4470050</v>
       </c>
       <c r="G8">
-        <f>B8+A8+A8+B8*A8</f>
+        <f t="shared" si="1"/>
         <v>15349</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H15" si="2">F8+G8</f>
+        <f t="shared" ref="H8:H15" si="5">F8+G8</f>
         <v>4485399</v>
       </c>
       <c r="I8">
-        <f>D8/H8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>82425</v>
-      </c>
-      <c r="E12">
-        <v>0.21</v>
-      </c>
-      <c r="F12">
-        <f>A12*B12*B12</f>
-        <v>324</v>
-      </c>
-      <c r="G12">
-        <f>B12+A12+A12+B12*A12</f>
-        <v>53</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>377</v>
-      </c>
-      <c r="I12">
-        <f>D12/H12</f>
-        <v>218.63395225464191</v>
-      </c>
-      <c r="J12">
-        <f>H12/E12</f>
-        <v>1795.2380952380954</v>
-      </c>
-      <c r="K12">
-        <f>B12/A12</f>
-        <v>2.25</v>
-      </c>
-      <c r="L12">
-        <f>(B12/A12)/E12</f>
-        <v>10.714285714285715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>44500</v>
-      </c>
-      <c r="E13">
-        <v>0.15</v>
-      </c>
-      <c r="F13">
-        <f>A13*B13*B13</f>
-        <v>576</v>
-      </c>
-      <c r="G13">
-        <f>B13+A13+A13+B13*A13</f>
-        <v>68</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>644</v>
-      </c>
-      <c r="I13">
-        <f>D13/H13</f>
-        <v>69.099378881987576</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K15" si="3">B13/A13</f>
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <f>(B13/A13)/E13</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>22186</v>
-      </c>
-      <c r="F14">
-        <f>A14*B14*B14</f>
-        <v>900</v>
-      </c>
-      <c r="G14">
-        <f>B14+A14+A14+B14*A14</f>
-        <v>83</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>983</v>
-      </c>
-      <c r="I14">
-        <f>D14/H14</f>
-        <v>22.569684638860632</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
-      </c>
-      <c r="L14" t="e">
-        <f>(B14/A14)/E14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <f>A15*B15*B15</f>
-        <v>1936</v>
-      </c>
-      <c r="G15">
-        <f>B15+A15+A15+B15*A15</f>
-        <v>118</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>2054</v>
-      </c>
-      <c r="I15">
-        <f>D15/H15</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
